--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itga4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H2">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>0.28557190913</v>
+        <v>0.6532774706606667</v>
       </c>
       <c r="R2">
-        <v>2.57014718217</v>
+        <v>5.879497235946</v>
       </c>
       <c r="S2">
-        <v>0.001288783934078047</v>
+        <v>0.0026294067397609</v>
       </c>
       <c r="T2">
-        <v>0.001288783934078046</v>
+        <v>0.0026294067397609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H3">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>0.2395182439195555</v>
+        <v>0.4438301773746667</v>
       </c>
       <c r="R3">
-        <v>2.155664195276</v>
+        <v>3.994471596372001</v>
       </c>
       <c r="S3">
-        <v>0.001080944080328248</v>
+        <v>0.00178639263117097</v>
       </c>
       <c r="T3">
-        <v>0.001080944080328248</v>
+        <v>0.00178639263117097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H4">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>1.505733388146</v>
+        <v>1.454940877847</v>
       </c>
       <c r="R4">
-        <v>13.551600493314</v>
+        <v>13.094467900623</v>
       </c>
       <c r="S4">
-        <v>0.006795363751145673</v>
+        <v>0.005856058906019886</v>
       </c>
       <c r="T4">
-        <v>0.00679536375114567</v>
+        <v>0.005856058906019886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H5">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>41.00465024715011</v>
+        <v>69.75377229383635</v>
       </c>
       <c r="R5">
-        <v>369.041852224351</v>
+        <v>627.7839506445271</v>
       </c>
       <c r="S5">
-        <v>0.1850536862046872</v>
+        <v>0.2807551878494674</v>
       </c>
       <c r="T5">
-        <v>0.1850536862046872</v>
+        <v>0.2807551878494674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I6">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J6">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>0.8388229880200002</v>
+        <v>1.035557673085778</v>
       </c>
       <c r="R6">
-        <v>7.549406892180001</v>
+        <v>9.320019057772001</v>
       </c>
       <c r="S6">
-        <v>0.003785602000522362</v>
+        <v>0.004168064026866192</v>
       </c>
       <c r="T6">
-        <v>0.00378560200052236</v>
+        <v>0.004168064026866192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I7">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J7">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>0.7035475221004445</v>
+        <v>0.7035475221004446</v>
       </c>
       <c r="R7">
-        <v>6.331927698904</v>
+        <v>6.331927698904002</v>
       </c>
       <c r="S7">
-        <v>0.003175104813725598</v>
+        <v>0.002831740997408272</v>
       </c>
       <c r="T7">
-        <v>0.003175104813725598</v>
+        <v>0.002831740997408272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I8">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J8">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>4.422857218884</v>
+        <v>2.306332695687334</v>
       </c>
       <c r="R8">
-        <v>39.805714969956</v>
+        <v>20.756994261186</v>
       </c>
       <c r="S8">
-        <v>0.01996032223121767</v>
+        <v>0.009282865254848479</v>
       </c>
       <c r="T8">
-        <v>0.01996032223121766</v>
+        <v>0.009282865254848479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I9">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J9">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>120.4447711534949</v>
+        <v>110.5717820829016</v>
       </c>
       <c r="R9">
-        <v>1084.002940381454</v>
+        <v>995.1460387461143</v>
       </c>
       <c r="S9">
-        <v>0.5435663699529619</v>
+        <v>0.445045485407798</v>
       </c>
       <c r="T9">
-        <v>0.5435663699529618</v>
+        <v>0.445045485407798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H10">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>0.02894687454</v>
+        <v>0.07082755610288889</v>
       </c>
       <c r="R10">
-        <v>0.26052187086</v>
+        <v>0.637448004926</v>
       </c>
       <c r="S10">
-        <v>0.0001306370327620075</v>
+        <v>0.0002850771100209354</v>
       </c>
       <c r="T10">
-        <v>0.0001306370327620075</v>
+        <v>0.0002850771100209354</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H11">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>0.02427866444533333</v>
+        <v>0.04811953297022223</v>
       </c>
       <c r="R11">
-        <v>0.218507980008</v>
+        <v>0.433075796732</v>
       </c>
       <c r="S11">
-        <v>0.0001095694347996023</v>
+        <v>0.0001936785362858024</v>
       </c>
       <c r="T11">
-        <v>0.0001095694347996023</v>
+        <v>0.0001936785362858024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H12">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>0.152628021468</v>
+        <v>0.1577429366236667</v>
       </c>
       <c r="R12">
-        <v>1.373652193212</v>
+        <v>1.419686429613</v>
       </c>
       <c r="S12">
-        <v>0.0006888091428787289</v>
+        <v>0.0006349068494409945</v>
       </c>
       <c r="T12">
-        <v>0.0006888091428787287</v>
+        <v>0.0006349068494409945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H13">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I13">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J13">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>4.156418850428667</v>
+        <v>7.562619931670779</v>
       </c>
       <c r="R13">
-        <v>37.407769653858</v>
+        <v>68.06357938503702</v>
       </c>
       <c r="S13">
-        <v>0.01875788782605043</v>
+        <v>0.03043913912793462</v>
       </c>
       <c r="T13">
-        <v>0.01875788782605043</v>
+        <v>0.03043913912793462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H14">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>0.31702021964</v>
+        <v>0.4850684320362221</v>
       </c>
       <c r="R14">
-        <v>2.85318197676</v>
+        <v>4.365615888325999</v>
       </c>
       <c r="S14">
-        <v>0.001430709929049546</v>
+        <v>0.001952374391774793</v>
       </c>
       <c r="T14">
-        <v>0.001430709929049545</v>
+        <v>0.001952374391774793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H15">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>0.2658949422808888</v>
+        <v>0.3295506395035555</v>
       </c>
       <c r="R15">
-        <v>2.393054480527999</v>
+        <v>2.965955755532</v>
       </c>
       <c r="S15">
-        <v>0.001199981926822576</v>
+        <v>0.001326423627814441</v>
       </c>
       <c r="T15">
-        <v>0.001199981926822576</v>
+        <v>0.001326423627814441</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H16">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>1.671550716888</v>
+        <v>1.080315672923666</v>
       </c>
       <c r="R16">
-        <v>15.043956451992</v>
+        <v>9.722841056312999</v>
       </c>
       <c r="S16">
-        <v>0.007543696141139761</v>
+        <v>0.004348212572801724</v>
       </c>
       <c r="T16">
-        <v>0.007543696141139759</v>
+        <v>0.004348212572801724</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H17">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>45.52024485606977</v>
+        <v>51.79323407703745</v>
       </c>
       <c r="R17">
-        <v>409.682203704628</v>
+        <v>466.1391066933371</v>
       </c>
       <c r="S17">
-        <v>0.2054325315978307</v>
+        <v>0.2084649859705866</v>
       </c>
       <c r="T17">
-        <v>0.2054325315978307</v>
+        <v>0.2084649859705866</v>
       </c>
     </row>
   </sheetData>
